--- a/data/dieticians/dieticians_all_wide.xlsx
+++ b/data/dieticians/dieticians_all_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC401"/>
+  <dimension ref="A1:AI401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,36 @@
           <t>who_cat_clean_diet3</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marketing_str_11_TEXT_diet1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>marketing_str_11_TEXT_diet2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>marketing_str_11_TEXT_diet3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>prem_offer_10_TEXT_diet1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>prem_offer_10_TEXT_diet2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>prem_offer_10_TEXT_diet3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -643,6 +673,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>fondateur de IJsboerke</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Koppelen van het merk aan de verkoop ervan in een specifieke supermarktketen</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -928,6 +968,16 @@
           <t>4e,A</t>
         </is>
       </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Samenwerking met een ander merk</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Combinatie met een ander merk en het aanbieden van mogelijke recepten</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1068,6 +1118,11 @@
           <t>4b,4c</t>
         </is>
       </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Promouvoir les alternatives végétales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1343,6 +1398,11 @@
           <t>1,12,14,15,3,4f</t>
         </is>
       </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Idéal pour la famille</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1738,6 +1798,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Saison + idée recette offerte</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1878,6 +1943,16 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>Mention du plat de pâtes favori des Belges</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Wereld Pastadag</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2133,6 +2208,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Promouvoir les alternatives 0%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2273,6 +2353,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Livraison offerte</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2538,6 +2623,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Faire un test pour savoir quelle bière correspond</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Test de personnalité</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Doe de 'Blond'test</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2678,6 +2778,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Partage de recette</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2813,6 +2923,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Naissance</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>Grossesse et offre pour calculer la date de naissance du bébé</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Reken de geboortedatum uit via een test</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2953,6 +3078,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Placement d'une marque supplémentaire : Nûby</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3093,6 +3223,16 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Offre de recette</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>November = wereld vegan maand, recept</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3228,6 +3368,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>Dessin de tomate, ingrédient principal de la marque</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3508,6 +3653,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>Saison estivale</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3638,6 +3788,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>Grossesse + accès à des infos sur son bébé et sa grossesse</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Info over zwangerschapskalender</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Aller sur leur siteweb pour avoir accès à des infos sur son bébé</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3773,6 +3938,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>premiers mois de son bébé et infos dessus offertes</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Extra info die wordt aangeboden</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Accès à des infos sur son bébé en cliquant sur un lien</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3903,6 +4083,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Jeu sur la pub</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4033,6 +4218,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Mise en situation comique</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4173,6 +4363,16 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Mise en avant de la cuisine japonaise + idée de recette</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4313,6 +4513,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Saison automnale et invitation à partager son avis dans les commentaires</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4453,6 +4663,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>Nouvauté</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4723,6 +4938,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>Choisir le design de la prochaine boîte Delacre</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Stem op je favoriete doos</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Nouveau designe de boîte Delacre à choisir</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4838,6 +5068,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Feestje</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>boisson incluse à l'achat d'un ticket</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4978,6 +5218,16 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Livraison offerte</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Gratis thuislevering</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5108,6 +5358,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>Placement du restaurant Happy Thaï</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Nouveaux restaurants</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5248,6 +5508,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>promouvoir les mouvements de jeunesse</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5383,6 +5648,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>Collaboration avec la marque de vélo Lucien</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5518,6 +5788,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>Poumouvoir les bienfaits du produit</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5658,6 +5933,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>promouvoir des livraisons pas chères</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Livraison à moins de 1 euro</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5793,6 +6078,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>collaboration avec la marque de vélo Lucien</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5933,6 +6223,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>Collaboration avec la marque de vélo Lucien, met en avant la Belgique</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6068,6 +6363,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>Mise en avant des moments familiaux</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Werknemer</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6183,6 +6488,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>Collaboration avec Ginette</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>Entrée gratuite</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6323,6 +6638,16 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>mise en avant d'un professionnel de la santé (diététicienne)</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Tested and approved by a dietitian</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6848,6 +7173,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>Travail au sein de l'entreprise</t>
+        </is>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>Avantages en tant qu'employé</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7273,6 +7608,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>Nouvelle collection à tester</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>Nouvelle collection</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7558,6 +7903,21 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>invitation à donner son avis dans les commentaires</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>Kies mee de smaak</t>
+        </is>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>Potentiel nouveau produit</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7843,6 +8203,11 @@
           <t>4a</t>
         </is>
       </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>Een kijkje in...</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7988,6 +8353,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>Moments en famille</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8133,6 +8503,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8278,6 +8653,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>saison estivale</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8423,6 +8803,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>Placement d'autres produits (eau Evian)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8568,6 +8953,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>Fierté belge et de la compagnie</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8713,6 +9103,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>Uitdaging</t>
+        </is>
+      </c>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8858,6 +9258,21 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>blue Monday</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>Mention du Blue Monday</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>Blue Monday</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8998,6 +9413,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>sorties à l'extérieur</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9143,6 +9563,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>Faire participer au concours</t>
+        </is>
+      </c>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>invite à aller sur le site pour participer au vote</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9288,6 +9718,16 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>inspirations recettes</t>
+        </is>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9433,6 +9873,16 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>Mise en avant de l'impact environnemental faible du produit</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>Eco-score</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9563,6 +10013,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>Soutient aux pères de famille</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9708,6 +10163,26 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>reconnaissance du nouveau produit</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>Creëren van een uitdaging onder vrienden</t>
+        </is>
+      </c>
+      <c r="AG68" t="inlineStr">
+        <is>
+          <t>annonce d'un nouveau produit</t>
+        </is>
+      </c>
+      <c r="AH68" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9853,6 +10328,16 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>émission</t>
+        </is>
+      </c>
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t>regarder la vidéo pour utiliser les mêmes ingrédients pour la recette</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9998,6 +10483,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>Pour les sorties avec son bébé</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10138,6 +10628,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>Inviter à participer au vote</t>
+        </is>
+      </c>
+      <c r="AH71" t="inlineStr">
+        <is>
+          <t>Se rendre sur le site web pour voter</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10253,6 +10753,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t>Mise en avant du fait que les bières contiennent 0% d'alcool mais 100% de goût</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10398,6 +10903,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>Internationale dag van de ijsbeer</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10538,6 +11048,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AH74" t="inlineStr">
+        <is>
+          <t>Inviter à commander en ligne sur leur site</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10683,6 +11198,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>saison automnale et sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10828,6 +11348,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>Promouvoir folder en ligne</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10958,6 +11483,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>collaboration avec d'autres marques (JBL)</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11228,6 +11758,21 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>gagner des gains</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>Collaboration avec un Hotel</t>
+        </is>
+      </c>
+      <c r="AH79" t="inlineStr">
+        <is>
+          <t>Aller sur le site Web</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11368,6 +11913,16 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>Objectifs de la marque et invite à se rendre sur leur site Web pour plus d'infos</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>Duurzaamheid</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11513,6 +12068,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>Fête d'anniversaire</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>Gepersonaliseerde producten</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11658,6 +12223,21 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>événement BLACK FRIDAY</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>Evénement black Friday</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>Black Friday</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11803,6 +12383,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>Met en avant les sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11948,6 +12533,11 @@
           <t>18</t>
         </is>
       </c>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12088,6 +12678,11 @@
           <t>4e</t>
         </is>
       </c>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>participation à un mouvement sur les réseaux sociaux, fierté belge</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12233,6 +12828,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>Partage de recette</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12378,6 +12978,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant</t>
+        </is>
+      </c>
+      <c r="AH87" t="inlineStr">
+        <is>
+          <t>invite à commander en ligne</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12523,6 +13133,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>Amateurs de patisseries</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12668,6 +13283,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>Single's day</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12928,6 +13548,11 @@
           <t>4e</t>
         </is>
       </c>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>invitation pour participer à un mouvement sur les réseaux</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13058,6 +13683,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>Wereldbijendag</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13203,6 +13833,16 @@
           <t>11</t>
         </is>
       </c>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>Propose des recettes, met en avant les petits déjeuners</t>
+        </is>
+      </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13348,6 +13988,11 @@
           <t>4b</t>
         </is>
       </c>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13463,6 +14108,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>collaboration avec Ginette</t>
+        </is>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>événement spécial entrée gratuite</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13578,6 +14233,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>saison printanière</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13723,6 +14383,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>idée de recette</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13868,6 +14533,16 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AE98" t="inlineStr">
+        <is>
+          <t>Nouveauté, invite à donner son avis en commentaires/voter</t>
+        </is>
+      </c>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>Kies mee</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14003,6 +14678,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE99" t="inlineStr">
+        <is>
+          <t>Donne des idées de recettes</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14438,6 +15118,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>Italiaanse nationale feestdag</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14583,6 +15268,26 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AD103" t="inlineStr">
+        <is>
+          <t>Reconnaissances : 100% naturel , un pack de 4</t>
+        </is>
+      </c>
+      <c r="AE103" t="inlineStr">
+        <is>
+          <t>Mention des magasins où trouver le produit</t>
+        </is>
+      </c>
+      <c r="AG103" t="inlineStr">
+        <is>
+          <t>mise en avant : 100% naturale</t>
+        </is>
+      </c>
+      <c r="AH103" t="inlineStr">
+        <is>
+          <t>Nouveau packaging</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14728,6 +15433,21 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>Inschrijven nieuwsbrief</t>
+        </is>
+      </c>
+      <c r="AG104" t="inlineStr">
+        <is>
+          <t>s'inscrire à la newsletter ce qui incite a acheter les produits</t>
+        </is>
+      </c>
+      <c r="AH104" t="inlineStr">
+        <is>
+          <t>Newsletter pour idées de recettes</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14873,6 +15593,11 @@
           <t>4c</t>
         </is>
       </c>
+      <c r="AH105" t="inlineStr">
+        <is>
+          <t>essai gratuit</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15163,6 +15888,16 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AE107" t="inlineStr">
+        <is>
+          <t>saison estivale</t>
+        </is>
+      </c>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15448,6 +16183,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE109" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
+      <c r="AG109" t="inlineStr">
+        <is>
+          <t>Découverte du nouveau produit</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15738,6 +16483,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AD111" t="inlineStr">
+        <is>
+          <t>"BIO"</t>
+        </is>
+      </c>
+      <c r="AE111" t="inlineStr">
+        <is>
+          <t>Goûter idéal</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15883,6 +16638,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE112" t="inlineStr">
+        <is>
+          <t>Collaboration avec Uber Eats</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -16023,6 +16783,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AD113" t="inlineStr">
+        <is>
+          <t>Événement : rentrée scolaire</t>
+        </is>
+      </c>
+      <c r="AE113" t="inlineStr">
+        <is>
+          <t>saison estivale</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16298,6 +17068,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>Personne directement détenu par l'entreprise</t>
+        </is>
+      </c>
+      <c r="AG115" t="inlineStr">
+        <is>
+          <t>Site web : incitatation à se rendre sur le site web</t>
+        </is>
+      </c>
+      <c r="AH115" t="inlineStr">
+        <is>
+          <t>Site internet</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16443,6 +17228,21 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AD116" t="inlineStr">
+        <is>
+          <t>Personne détenue pour la pub</t>
+        </is>
+      </c>
+      <c r="AE116" t="inlineStr">
+        <is>
+          <t>Inviter à réagir dans les commentaires</t>
+        </is>
+      </c>
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>Consument betrekken</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16588,6 +17388,21 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE117" t="inlineStr">
+        <is>
+          <t>Collaboration avec Takeaway</t>
+        </is>
+      </c>
+      <c r="AH117" t="inlineStr">
+        <is>
+          <t>Livraison offerte</t>
+        </is>
+      </c>
+      <c r="AI117" t="inlineStr">
+        <is>
+          <t>Geen leveringskost</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -16728,6 +17543,26 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE118" t="inlineStr">
+        <is>
+          <t>Collaboration avec Carrefour</t>
+        </is>
+      </c>
+      <c r="AG118" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
+      <c r="AH118" t="inlineStr">
+        <is>
+          <t>Livraison gratuite</t>
+        </is>
+      </c>
+      <c r="AI118" t="inlineStr">
+        <is>
+          <t>Gratis levering</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -16873,6 +17708,26 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AD119" t="inlineStr">
+        <is>
+          <t>Personnage choisi par le consommateur (personnalisation) / Événement important</t>
+        </is>
+      </c>
+      <c r="AE119" t="inlineStr">
+        <is>
+          <t>événement familial</t>
+        </is>
+      </c>
+      <c r="AF119" t="inlineStr">
+        <is>
+          <t>Gepersonaliseerde producten</t>
+        </is>
+      </c>
+      <c r="AG119" t="inlineStr">
+        <is>
+          <t>Personnalisation</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -17158,6 +18013,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE121" t="inlineStr">
+        <is>
+          <t>mise en avant de la durabilité, ivitation à communiquer ses idées dans les commentaires</t>
+        </is>
+      </c>
+      <c r="AF121" t="inlineStr">
+        <is>
+          <t>Restjesdag</t>
+        </is>
+      </c>
+      <c r="AG121" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17298,6 +18168,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE122" t="inlineStr">
+        <is>
+          <t>Pause lunch</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17443,6 +18318,11 @@
           <t>4c</t>
         </is>
       </c>
+      <c r="AE123" t="inlineStr">
+        <is>
+          <t>Picnic, mention de la photographe</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17573,6 +18453,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE124" t="inlineStr">
+        <is>
+          <t>révélation nouveau packaging</t>
+        </is>
+      </c>
+      <c r="AF124" t="inlineStr">
+        <is>
+          <t>Koningskoppel</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -17703,6 +18593,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE125" t="inlineStr">
+        <is>
+          <t>nouveau packaging révélé</t>
+        </is>
+      </c>
+      <c r="AF125" t="inlineStr">
+        <is>
+          <t>Koningskoppel</t>
+        </is>
+      </c>
+      <c r="AH125" t="inlineStr">
+        <is>
+          <t>Nouveau packaging</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -17848,6 +18753,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AD126" t="inlineStr">
+        <is>
+          <t>saison : automne</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -17993,6 +18903,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AE127" t="inlineStr">
+        <is>
+          <t>Nouveau packaging, formes de chocolats typiques de la marque mises en avant</t>
+        </is>
+      </c>
+      <c r="AH127" t="inlineStr">
+        <is>
+          <t>Nouveau packaging</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -18128,6 +19048,31 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE128" t="inlineStr">
+        <is>
+          <t>Activité familiale mise en avant</t>
+        </is>
+      </c>
+      <c r="AF128" t="inlineStr">
+        <is>
+          <t>Gratis Family Experience</t>
+        </is>
+      </c>
+      <c r="AG128" t="inlineStr">
+        <is>
+          <t>Chasse aux trésors - activité</t>
+        </is>
+      </c>
+      <c r="AH128" t="inlineStr">
+        <is>
+          <t>Activité gratuite organisée par la compagnie</t>
+        </is>
+      </c>
+      <c r="AI128" t="inlineStr">
+        <is>
+          <t>Gratis Family Experience</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -18263,6 +19208,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AH129" t="inlineStr">
+        <is>
+          <t>tester des produits gratuitement</t>
+        </is>
+      </c>
+      <c r="AI129" t="inlineStr">
+        <is>
+          <t>Gratis</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -18543,6 +19498,16 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE131" t="inlineStr">
+        <is>
+          <t>mention d'un magasin en particulier + mise en avant d'unavec fabriquant</t>
+        </is>
+      </c>
+      <c r="AH131" t="inlineStr">
+        <is>
+          <t>nouvelle gamme en magasin</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -18688,6 +19653,11 @@
           <t>4a</t>
         </is>
       </c>
+      <c r="AE132" t="inlineStr">
+        <is>
+          <t>Motiver à bien commencer la journée</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -18833,6 +19803,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE133" t="inlineStr">
+        <is>
+          <t>Collaboration avec un restaurant en particulier</t>
+        </is>
+      </c>
+      <c r="AH133" t="inlineStr">
+        <is>
+          <t>Incite à se rendre sur le site Web</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -18968,6 +19948,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AH134" t="inlineStr">
+        <is>
+          <t>Tout type de promotions, inciter à se rendre sur le site Web</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -19103,6 +20088,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE135" t="inlineStr">
+        <is>
+          <t>choix du design en commentaires</t>
+        </is>
+      </c>
+      <c r="AF135" t="inlineStr">
+        <is>
+          <t>Koningskoppel en 'stem mee'</t>
+        </is>
+      </c>
+      <c r="AH135" t="inlineStr">
+        <is>
+          <t>Nouveau design de packaging</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -19243,6 +20243,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE136" t="inlineStr">
+        <is>
+          <t>Collaboration avec le magasin Carrefour</t>
+        </is>
+      </c>
+      <c r="AH136" t="inlineStr">
+        <is>
+          <t>livraison offerte, incite à se rendre sur leur site Web</t>
+        </is>
+      </c>
+      <c r="AI136" t="inlineStr">
+        <is>
+          <t>Gratis levering</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -19508,6 +20523,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE138" t="inlineStr">
+        <is>
+          <t>Sortie en famille, collaboration avec le jardin botanique de Meise</t>
+        </is>
+      </c>
+      <c r="AH138" t="inlineStr">
+        <is>
+          <t>Activité gratuite organisée par la marque</t>
+        </is>
+      </c>
+      <c r="AI138" t="inlineStr">
+        <is>
+          <t>Gratuit Family Experience</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -19653,6 +20683,21 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE139" t="inlineStr">
+        <is>
+          <t>Nouveauté (?)</t>
+        </is>
+      </c>
+      <c r="AG139" t="inlineStr">
+        <is>
+          <t>découverte</t>
+        </is>
+      </c>
+      <c r="AH139" t="inlineStr">
+        <is>
+          <t>Nouveauté (?)</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -19798,6 +20843,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AG140" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -19933,6 +20983,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AG141" t="inlineStr">
+        <is>
+          <t>invitation pour la découverte</t>
+        </is>
+      </c>
+      <c r="AH141" t="inlineStr">
+        <is>
+          <t>Nouveau magasin</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -20078,6 +21138,11 @@
           <t>18</t>
         </is>
       </c>
+      <c r="AH142" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -20368,6 +21433,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AD144" t="inlineStr">
+        <is>
+          <t>découverte d'un nouveau produit</t>
+        </is>
+      </c>
+      <c r="AH144" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -20513,6 +21588,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AH145" t="inlineStr">
+        <is>
+          <t>Evénement et produits distribués</t>
+        </is>
+      </c>
+      <c r="AI145" t="inlineStr">
+        <is>
+          <t>Gratis</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -20658,6 +21743,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AE146" t="inlineStr">
+        <is>
+          <t>Mise en avant des actions caritatives</t>
+        </is>
+      </c>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>Inspelen op jeugdbeweging - koekjesverkoop</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -20803,6 +21898,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE147" t="inlineStr">
+        <is>
+          <t>Assimilation du produit avec sorties en famille</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -20938,6 +22038,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AH148" t="inlineStr">
+        <is>
+          <t>Tout type de cadeaux, incite à aller sur le site Web s'informer</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -21223,6 +22328,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AH150" t="inlineStr">
+        <is>
+          <t>Incite à aller sur le site web pour voir la recette</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -21488,6 +22598,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE152" t="inlineStr">
+        <is>
+          <t>Evénement de sensibilisation</t>
+        </is>
+      </c>
+      <c r="AF152" t="inlineStr">
+        <is>
+          <t>Wereld Prematurendag</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -21603,6 +22723,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AF153" t="inlineStr">
+        <is>
+          <t>Expertrol</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -21748,6 +22873,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AG154" t="inlineStr">
+        <is>
+          <t>découverte</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -22038,6 +23168,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AE156" t="inlineStr">
+        <is>
+          <t>Forme caractéristiques des chocolats Guylian</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -22183,6 +23318,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AE157" t="inlineStr">
+        <is>
+          <t>Nouveauté et formes caractéristiques des chocolats Guylian</t>
+        </is>
+      </c>
+      <c r="AH157" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -22458,6 +23603,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AH159" t="inlineStr">
+        <is>
+          <t>Incitation a faire ses courses sur le site internet et réduction sur le première commande</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -22603,6 +23753,16 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH160" t="inlineStr">
+        <is>
+          <t>Invite à se rendre sur le site internet pour voir la recette</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -22743,6 +23903,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE161" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AF161" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -23003,6 +24173,21 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AE163" t="inlineStr">
+        <is>
+          <t>Collaboration avec une blogueuse</t>
+        </is>
+      </c>
+      <c r="AF163" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH163" t="inlineStr">
+        <is>
+          <t>Inviter à cliquer sur un lien pour avoir accès à la recette</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -23148,6 +24333,11 @@
           <t>4b,4c</t>
         </is>
       </c>
+      <c r="AE164" t="inlineStr">
+        <is>
+          <t>Alternatives végétales proposées</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -23263,6 +24453,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AF165" t="inlineStr">
+        <is>
+          <t>666, connectie met bekende nummers</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -23408,6 +24603,16 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AE166" t="inlineStr">
+        <is>
+          <t>Logo (sourire) caractéristique de la marque</t>
+        </is>
+      </c>
+      <c r="AH166" t="inlineStr">
+        <is>
+          <t>pack budget</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -23553,6 +24758,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AE167" t="inlineStr">
+        <is>
+          <t>Partage d'anecdotes, monument connu afffiché</t>
+        </is>
+      </c>
+      <c r="AF167" t="inlineStr">
+        <is>
+          <t>Weetje</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -23698,6 +24913,11 @@
           <t>18</t>
         </is>
       </c>
+      <c r="AH168" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -23833,6 +25053,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AD169" t="inlineStr">
+        <is>
+          <t>récyclage</t>
+        </is>
+      </c>
+      <c r="AF169" t="inlineStr">
+        <is>
+          <t>DIY</t>
+        </is>
+      </c>
+      <c r="AH169" t="inlineStr">
+        <is>
+          <t>Invite à découvrir leurs idées de bricolage (sur leur site)</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -23978,6 +25213,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AE170" t="inlineStr">
+        <is>
+          <t>Collaboration avec une émission télévisée</t>
+        </is>
+      </c>
+      <c r="AF170" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -24123,6 +25368,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AH171" t="inlineStr">
+        <is>
+          <t>Nouveauté : possibilité d'emporter</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -24268,6 +25518,16 @@
           <t>15</t>
         </is>
       </c>
+      <c r="AF172" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH172" t="inlineStr">
+        <is>
+          <t>Invitation à aller sur leur site pour voir la recette</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -24688,6 +25948,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AE175" t="inlineStr">
+        <is>
+          <t>Collaboration avec Plopsa Indoor</t>
+        </is>
+      </c>
+      <c r="AH175" t="inlineStr">
+        <is>
+          <t>Offre des cadeaux à un événement</t>
+        </is>
+      </c>
+      <c r="AI175" t="inlineStr">
+        <is>
+          <t>Traktatie</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -24833,6 +26108,21 @@
           <t>4b</t>
         </is>
       </c>
+      <c r="AG176" t="inlineStr">
+        <is>
+          <t>25% moins chère pour un même produit</t>
+        </is>
+      </c>
+      <c r="AH176" t="inlineStr">
+        <is>
+          <t>Explique que c'est moins chère et plus facile que d'autres marques</t>
+        </is>
+      </c>
+      <c r="AI176" t="inlineStr">
+        <is>
+          <t>Productvergelijking die aangeeft dat zij goedkoper zijn</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -24978,6 +26268,16 @@
           <t>10</t>
         </is>
       </c>
+      <c r="AF177" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH177" t="inlineStr">
+        <is>
+          <t>Incite à (aller sur leur site) pour voir la recette</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -25123,6 +26423,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE178" t="inlineStr">
+        <is>
+          <t>saison estivale</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -25253,6 +26558,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE179" t="inlineStr">
+        <is>
+          <t>Allusion aux courses (racing)</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -25533,6 +26843,11 @@
           <t>4e</t>
         </is>
       </c>
+      <c r="AE181" t="inlineStr">
+        <is>
+          <t>Allusion au jardinage</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -25678,6 +26993,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE182" t="inlineStr">
+        <is>
+          <t>Collaboration avec un restaurant</t>
+        </is>
+      </c>
+      <c r="AH182" t="inlineStr">
+        <is>
+          <t>Incitation a commander sur le site web Take Away</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -25818,6 +27143,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AE183" t="inlineStr">
+        <is>
+          <t>Collaboration avec un hote</t>
+        </is>
+      </c>
+      <c r="AH183" t="inlineStr">
+        <is>
+          <t>Inviter a participer sur leur site web</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -25953,6 +27288,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF184" t="inlineStr">
+        <is>
+          <t>Beroemde popgroep</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -26243,6 +27583,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AF186" t="inlineStr">
+        <is>
+          <t>Ontwerp jouw eigen..</t>
+        </is>
+      </c>
+      <c r="AH186" t="inlineStr">
+        <is>
+          <t>Possibilité de personnaliser son produit</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -26383,6 +27733,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE187" t="inlineStr">
+        <is>
+          <t>Collaboration avec un restaurant</t>
+        </is>
+      </c>
+      <c r="AH187" t="inlineStr">
+        <is>
+          <t>Incite a commander sur le site web</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -26668,6 +28028,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AF189" t="inlineStr">
+        <is>
+          <t>World Food day</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -26813,6 +28178,11 @@
           <t>18</t>
         </is>
       </c>
+      <c r="AH190" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -27103,6 +28473,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE192" t="inlineStr">
+        <is>
+          <t>Collaboration avec une autre marque</t>
+        </is>
+      </c>
+      <c r="AF192" t="inlineStr">
+        <is>
+          <t>Pi-dag</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -27393,6 +28773,16 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AE194" t="inlineStr">
+        <is>
+          <t>Saison automnale et mise en avant du brocoli</t>
+        </is>
+      </c>
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -27528,6 +28918,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AG195" t="inlineStr">
+        <is>
+          <t>Jeu</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -27668,6 +29063,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE196" t="inlineStr">
+        <is>
+          <t>Mise en avant du régime végétarien</t>
+        </is>
+      </c>
+      <c r="AF196" t="inlineStr">
+        <is>
+          <t>Receptenmenu Week zonder Vlees</t>
+        </is>
+      </c>
+      <c r="AH196" t="inlineStr">
+        <is>
+          <t>Invite à consulter le site web pour des recettes</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -27953,6 +29363,26 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AD198" t="inlineStr">
+        <is>
+          <t>Recherche d'emploie</t>
+        </is>
+      </c>
+      <c r="AE198" t="inlineStr">
+        <is>
+          <t>Motifs caractéristiques de la marque</t>
+        </is>
+      </c>
+      <c r="AG198" t="inlineStr">
+        <is>
+          <t>recherche d'emploie</t>
+        </is>
+      </c>
+      <c r="AH198" t="inlineStr">
+        <is>
+          <t>Offre d'emploi</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -28098,6 +29528,21 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AG199" t="inlineStr">
+        <is>
+          <t>Livraison gratuite</t>
+        </is>
+      </c>
+      <c r="AH199" t="inlineStr">
+        <is>
+          <t>Mise en avant des budgets packs et livraison offerte</t>
+        </is>
+      </c>
+      <c r="AI199" t="inlineStr">
+        <is>
+          <t>Gratis levering</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -28243,6 +29688,21 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE200" t="inlineStr">
+        <is>
+          <t>Logo caractériqtique de la marque</t>
+        </is>
+      </c>
+      <c r="AH200" t="inlineStr">
+        <is>
+          <t>Prix spéciaux pour menu les jeudis</t>
+        </is>
+      </c>
+      <c r="AI200" t="inlineStr">
+        <is>
+          <t>All-in voor bepaalde prijs</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -28533,6 +29993,21 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE202" t="inlineStr">
+        <is>
+          <t>Mise en avant du "bon" nutriscore</t>
+        </is>
+      </c>
+      <c r="AG202" t="inlineStr">
+        <is>
+          <t>Présentation d'un nouveau produit</t>
+        </is>
+      </c>
+      <c r="AH202" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -28823,6 +30298,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AE204" t="inlineStr">
+        <is>
+          <t>Placement d'une autre marque (Nûby)</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -28948,6 +30428,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AE205" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AF205" t="inlineStr">
+        <is>
+          <t>Klant voorkeur laten doorgeven</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -29218,6 +30708,26 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AD207" t="inlineStr">
+        <is>
+          <t>Recyclage</t>
+        </is>
+      </c>
+      <c r="AE207" t="inlineStr">
+        <is>
+          <t>mise en avant du recyclage et de la durabilité</t>
+        </is>
+      </c>
+      <c r="AF207" t="inlineStr">
+        <is>
+          <t>DIY</t>
+        </is>
+      </c>
+      <c r="AH207" t="inlineStr">
+        <is>
+          <t>Invite à aller sur leur site pour découvrir des idées de bricolages</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -29353,6 +30863,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE208" t="inlineStr">
+        <is>
+          <t>présence de leur logo caractéristique</t>
+        </is>
+      </c>
+      <c r="AH208" t="inlineStr">
+        <is>
+          <t>Offre d'emploi, invite à se rendre sur leur site web pour plus d'informations</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -29498,6 +31018,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AF209" t="inlineStr">
+        <is>
+          <t>Slogan</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -29633,6 +31158,26 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE210" t="inlineStr">
+        <is>
+          <t>Brève explications des origines, utilisation de l'IA</t>
+        </is>
+      </c>
+      <c r="AF210" t="inlineStr">
+        <is>
+          <t>Immerse verhaal</t>
+        </is>
+      </c>
+      <c r="AG210" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
+      <c r="AH210" t="inlineStr">
+        <is>
+          <t>Invite à se rendre sur leur site Web pour plus d'informations</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -29768,6 +31313,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AD211" t="inlineStr">
+        <is>
+          <t>chaussure personnalisé</t>
+        </is>
+      </c>
+      <c r="AE211" t="inlineStr">
+        <is>
+          <t>Logo caractéristique, collaboration avec une marque de chaussures connue</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -29913,6 +31468,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AH212" t="inlineStr">
+        <is>
+          <t>Invite à voter pour son restaurant favori</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -30053,6 +31613,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF213" t="inlineStr">
+        <is>
+          <t>Gepersonaliseerd doosje en einde van het schooljaar</t>
+        </is>
+      </c>
+      <c r="AG213" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
+      <c r="AH213" t="inlineStr">
+        <is>
+          <t>Possibilité de personnaliser son produit</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -30198,6 +31773,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE214" t="inlineStr">
+        <is>
+          <t>Mise en avant du local</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -30343,6 +31923,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE215" t="inlineStr">
+        <is>
+          <t>collaboration entre Delhaize et Nestlé</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -30488,6 +32073,21 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AE216" t="inlineStr">
+        <is>
+          <t>Collaboration avec ELLE</t>
+        </is>
+      </c>
+      <c r="AF216" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH216" t="inlineStr">
+        <is>
+          <t>Incite à se rendre sur leur site web pour la recette</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -30633,6 +32233,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AE217" t="inlineStr">
+        <is>
+          <t>Mise en avant de la qualité et durabilité du produit</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -30778,6 +32383,16 @@
           <t>4a</t>
         </is>
       </c>
+      <c r="AE218" t="inlineStr">
+        <is>
+          <t>Collaboration avec Delhaize</t>
+        </is>
+      </c>
+      <c r="AH218" t="inlineStr">
+        <is>
+          <t>Packaging exclusifs à découvrir</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -30913,6 +32528,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE219" t="inlineStr">
+        <is>
+          <t>Collaboration avec delhaize</t>
+        </is>
+      </c>
+      <c r="AH219" t="inlineStr">
+        <is>
+          <t>Packaging exclusif à découvrir</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -31048,6 +32673,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE220" t="inlineStr">
+        <is>
+          <t>collaboration avec delhaize</t>
+        </is>
+      </c>
+      <c r="AH220" t="inlineStr">
+        <is>
+          <t>packagings à découvrir</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -31178,6 +32813,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AH221" t="inlineStr">
+        <is>
+          <t>Invite à se rendre sur un site pour plus d'informations</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -31613,6 +33253,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE224" t="inlineStr">
+        <is>
+          <t>Assimiler aux sorties en famille</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -31758,6 +33403,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE225" t="inlineStr">
+        <is>
+          <t>assimilé aux sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -31893,6 +33543,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF226" t="inlineStr">
+        <is>
+          <t>DIY</t>
+        </is>
+      </c>
+      <c r="AH226" t="inlineStr">
+        <is>
+          <t>idée de bricolage offerte</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -32038,6 +33698,16 @@
           <t>4c,7</t>
         </is>
       </c>
+      <c r="AE227" t="inlineStr">
+        <is>
+          <t>assimilé au petit déjeuner</t>
+        </is>
+      </c>
+      <c r="AF227" t="inlineStr">
+        <is>
+          <t>Proteïnerijk</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -32473,6 +34143,16 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE230" t="inlineStr">
+        <is>
+          <t>Idées données pour lutter contre le gaspillage alimentaire</t>
+        </is>
+      </c>
+      <c r="AF230" t="inlineStr">
+        <is>
+          <t>Tip</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -32618,6 +34298,16 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AE231" t="inlineStr">
+        <is>
+          <t>collaboration avec un blog culinaire</t>
+        </is>
+      </c>
+      <c r="AF231" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -32763,6 +34453,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AH232" t="inlineStr">
+        <is>
+          <t>uniquement sur le e-shop</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -32908,6 +34603,11 @@
           <t>4a</t>
         </is>
       </c>
+      <c r="AE233" t="inlineStr">
+        <is>
+          <t>assimilé au petit déjeuner</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -33048,6 +34748,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF234" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH234" t="inlineStr">
+        <is>
+          <t>offre une idée de recette</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -33193,6 +34903,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE235" t="inlineStr">
+        <is>
+          <t>assimilé au lunch (du lundi)</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -33333,6 +35048,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>logo caractéristique</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -33463,6 +35183,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AG237" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
+      <c r="AH237" t="inlineStr">
+        <is>
+          <t>offre de travail</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -33598,6 +35328,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>DIY</t>
+        </is>
+      </c>
+      <c r="AH238" t="inlineStr">
+        <is>
+          <t>idée de bricolage proposée</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -33743,6 +35488,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>mise en avant des options véganes</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -33888,6 +35638,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>mis en avant comme l'en-cas idéal</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -34148,6 +35903,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AG242" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
+      <c r="AH242" t="inlineStr">
+        <is>
+          <t>Invite à se rendre sur leur site webpour découvir le produit</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -34438,6 +36203,16 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>collaboration avec une émission de TV</t>
+        </is>
+      </c>
+      <c r="AF244" t="inlineStr">
+        <is>
+          <t>TV-programma</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -34583,6 +36358,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE245" t="inlineStr">
+        <is>
+          <t>assimiler avec les sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -34728,6 +36508,16 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE246" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant</t>
+        </is>
+      </c>
+      <c r="AH246" t="inlineStr">
+        <is>
+          <t>invite à commander sur le site web pour recevoir l'offre</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -34873,6 +36663,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE247" t="inlineStr">
+        <is>
+          <t>collaboration avec d'autres marques</t>
+        </is>
+      </c>
+      <c r="AH247" t="inlineStr">
+        <is>
+          <t>nouveautés et formats plus grands</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -35163,6 +36963,16 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE249" t="inlineStr">
+        <is>
+          <t>proposition d'alternatives plus "santés"</t>
+        </is>
+      </c>
+      <c r="AF249" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -35448,6 +37258,21 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AE251" t="inlineStr">
+        <is>
+          <t>mise en avant de septebre et de l'épautre</t>
+        </is>
+      </c>
+      <c r="AF251" t="inlineStr">
+        <is>
+          <t>Speltember</t>
+        </is>
+      </c>
+      <c r="AH251" t="inlineStr">
+        <is>
+          <t>invitation à consulter eur site web pour participer au concours</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -35583,6 +37408,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>mise en garde des pubs trompeuses</t>
+        </is>
+      </c>
+      <c r="AI252" t="inlineStr">
+        <is>
+          <t>Gratis</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -35723,6 +37558,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>associé à l'apéro (du vendredi)</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -35868,6 +37708,21 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>mise en avant du nutriscore "amélioré"</t>
+        </is>
+      </c>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>Nutriscore A in de verf zetten</t>
+        </is>
+      </c>
+      <c r="AH254" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -36013,6 +37868,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE255" t="inlineStr">
+        <is>
+          <t>collaboration avec une autre marque alimentaire</t>
+        </is>
+      </c>
+      <c r="AF255" t="inlineStr">
+        <is>
+          <t>Wereld Knuffeldag</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -36153,6 +38018,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE256" t="inlineStr">
+        <is>
+          <t>associé au week end</t>
+        </is>
+      </c>
+      <c r="AF256" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH256" t="inlineStr">
+        <is>
+          <t>incite à aller sur leur site pour des idées de recettes</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -36293,6 +38173,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE257" t="inlineStr">
+        <is>
+          <t>recette innovante</t>
+        </is>
+      </c>
+      <c r="AF257" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -36438,6 +38328,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AH258" t="inlineStr">
+        <is>
+          <t>nouveautés</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -36698,6 +38593,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>fin des vacances</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -36838,6 +38738,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE261" t="inlineStr">
+        <is>
+          <t>associé au matin (petit déjeuner)</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -36978,6 +38883,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AG262" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
+      <c r="AH262" t="inlineStr">
+        <is>
+          <t>invite à aller sur le site web pour découvrir la recette</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -37113,6 +39028,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE263" t="inlineStr">
+        <is>
+          <t>Jeu en lien avec des répliques de films connus</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -37248,6 +39168,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>mise en avant de leurs actions pour l'environnement</t>
+        </is>
+      </c>
+      <c r="AF264" t="inlineStr">
+        <is>
+          <t>Zero waste programma</t>
+        </is>
+      </c>
+      <c r="AH264" t="inlineStr">
+        <is>
+          <t>incite à aller sur leur site web pour plus d'infos</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -37393,6 +39328,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE265" t="inlineStr">
+        <is>
+          <t>associé aux sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -37538,6 +39478,16 @@
           <t>15</t>
         </is>
       </c>
+      <c r="AF266" t="inlineStr">
+        <is>
+          <t>Recept en in de kijker zetten van de voordelen van de groente</t>
+        </is>
+      </c>
+      <c r="AH266" t="inlineStr">
+        <is>
+          <t>invite à se rendre pour leur site pour plus d'informations et de recettes</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -37683,6 +39633,16 @@
           <t>10</t>
         </is>
       </c>
+      <c r="AE267" t="inlineStr">
+        <is>
+          <t>propose une idée de recette</t>
+        </is>
+      </c>
+      <c r="AF267" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -37828,6 +39788,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE268" t="inlineStr">
+        <is>
+          <t>collaboration avec Kinder Bueno</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -37968,6 +39933,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE269" t="inlineStr">
+        <is>
+          <t>mentionne la localisation de Gand</t>
+        </is>
+      </c>
+      <c r="AH269" t="inlineStr">
+        <is>
+          <t>invite à commander sur leur site avec des frais de livraisons peu élevés</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -38113,6 +40088,11 @@
           <t>4a</t>
         </is>
       </c>
+      <c r="AE270" t="inlineStr">
+        <is>
+          <t>associé au petit déjeuner</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -38393,6 +40373,16 @@
           <t>1,A</t>
         </is>
       </c>
+      <c r="AE272" t="inlineStr">
+        <is>
+          <t>saison hivernale</t>
+        </is>
+      </c>
+      <c r="AF272" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -38538,6 +40528,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE273" t="inlineStr">
+        <is>
+          <t>collaboration avec @elle_and_rapha, associé aux sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -38683,6 +40678,16 @@
           <t>18</t>
         </is>
       </c>
+      <c r="AE274" t="inlineStr">
+        <is>
+          <t>collaboration avec delhaize</t>
+        </is>
+      </c>
+      <c r="AH274" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -38973,6 +40978,21 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE276" t="inlineStr">
+        <is>
+          <t>collaboration avec Radio 2</t>
+        </is>
+      </c>
+      <c r="AF276" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="AH276" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -39113,6 +41133,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE277" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant d'Anvers</t>
+        </is>
+      </c>
+      <c r="AH277" t="inlineStr">
+        <is>
+          <t>incite à commander en ligne pour bénéficier de la ristourne</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -39253,6 +41283,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE278" t="inlineStr">
+        <is>
+          <t>mention de la rentrée de septembre</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -39513,6 +41548,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AE280" t="inlineStr">
+        <is>
+          <t>mention d'un restaurant/bar</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -39653,6 +41693,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE281" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant à Gand</t>
+        </is>
+      </c>
+      <c r="AH281" t="inlineStr">
+        <is>
+          <t>incite à commander sur leur site pour bénéficier de l'offre</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -39798,6 +41848,16 @@
           <t>11</t>
         </is>
       </c>
+      <c r="AF282" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH282" t="inlineStr">
+        <is>
+          <t>incite à se rendre sur leur site web pour acceder à la recette</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -39943,6 +42003,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE283" t="inlineStr">
+        <is>
+          <t>associé à la rentrée scolaire, mise en avant de la qualité des ingrédients</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -40078,6 +42143,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE284" t="inlineStr">
+        <is>
+          <t>Propose plein de recettes pour cet évènement, mise en avant du régime végétarien</t>
+        </is>
+      </c>
+      <c r="AF284" t="inlineStr">
+        <is>
+          <t>Week zonder Vlees</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -40348,6 +42423,21 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE286" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AF286" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH286" t="inlineStr">
+        <is>
+          <t>invite à consulter le site web pour la recette</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -40603,6 +42693,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE288" t="inlineStr">
+        <is>
+          <t>Paroles de chanson</t>
+        </is>
+      </c>
+      <c r="AF288" t="inlineStr">
+        <is>
+          <t>Popmuziek</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -40748,6 +42848,16 @@
           <t>4c</t>
         </is>
       </c>
+      <c r="AE289" t="inlineStr">
+        <is>
+          <t>alternatives végétales mises en avant, associé au petit déjeuner</t>
+        </is>
+      </c>
+      <c r="AH289" t="inlineStr">
+        <is>
+          <t>nouveautés</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -40893,6 +43003,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AE290" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AH290" t="inlineStr">
+        <is>
+          <t>Nouveautés</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -41173,6 +43293,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE292" t="inlineStr">
+        <is>
+          <t>localisé sur Bruxelles</t>
+        </is>
+      </c>
+      <c r="AG292" t="inlineStr">
+        <is>
+          <t>Livraison a prix réduit</t>
+        </is>
+      </c>
+      <c r="AH292" t="inlineStr">
+        <is>
+          <t>incite à commender sur leur site avec des livraisons à prix peu chers</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -41318,6 +43453,16 @@
           <t>4b</t>
         </is>
       </c>
+      <c r="AF293" t="inlineStr">
+        <is>
+          <t>Vergelijking met de concurrent?</t>
+        </is>
+      </c>
+      <c r="AH293" t="inlineStr">
+        <is>
+          <t>divers avantages mentionnés comparés à d'autres produits similaires</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -41463,6 +43608,16 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE294" t="inlineStr">
+        <is>
+          <t>mise en avant de leur large gamme</t>
+        </is>
+      </c>
+      <c r="AH294" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -41603,6 +43758,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE295" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant sur Bruxelles</t>
+        </is>
+      </c>
+      <c r="AH295" t="inlineStr">
+        <is>
+          <t>commander sur leur site web pour recevoir l'offre</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -41863,6 +44028,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AG297" t="inlineStr">
+        <is>
+          <t>jeu</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -42008,6 +44178,16 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE298" t="inlineStr">
+        <is>
+          <t>met en avant leur large gamme</t>
+        </is>
+      </c>
+      <c r="AH298" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -42268,6 +44448,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AH300" t="inlineStr">
+        <is>
+          <t>s'abonner à leur compte pour découvrir les nouveaux produits en avant-première</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -42413,6 +44598,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AH301" t="inlineStr">
+        <is>
+          <t>se rendre sur leur site pour découvrir les promos de la semaine</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -42528,6 +44718,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AG302" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
+      <c r="AH302" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -42668,6 +44868,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE303" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AF303" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH303" t="inlineStr">
+        <is>
+          <t>donne une idée de recette</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -42813,6 +45028,16 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AF304" t="inlineStr">
+        <is>
+          <t>Recept en 'Opa-dag'</t>
+        </is>
+      </c>
+      <c r="AH304" t="inlineStr">
+        <is>
+          <t>donne une idée de recette</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -42953,6 +45178,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE305" t="inlineStr">
+        <is>
+          <t>Localise l'offre sur Gand</t>
+        </is>
+      </c>
+      <c r="AG305" t="inlineStr">
+        <is>
+          <t>livraison à moins de 1 €</t>
+        </is>
+      </c>
+      <c r="AH305" t="inlineStr">
+        <is>
+          <t>commander sur leur site web pour des livraisons à moindre coût</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -43098,6 +45338,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE306" t="inlineStr">
+        <is>
+          <t>met en avant leur artisanat local</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -43228,6 +45473,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AH307" t="inlineStr">
+        <is>
+          <t>Offre d'emploi</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -43508,6 +45758,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF309" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH309" t="inlineStr">
+        <is>
+          <t>Invite à aller sur des sites Web pour acceder à des recettes</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -43648,6 +45908,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE310" t="inlineStr">
+        <is>
+          <t>collaboration avec des blogs culinaires</t>
+        </is>
+      </c>
+      <c r="AF310" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH310" t="inlineStr">
+        <is>
+          <t>invite à cliquer sur des liens pour avoir des recettes</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -43788,6 +46063,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE311" t="inlineStr">
+        <is>
+          <t>collaboration avec des blogs culinaires</t>
+        </is>
+      </c>
+      <c r="AF311" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH311" t="inlineStr">
+        <is>
+          <t>invite à cliquer sur des liens pour acceder à des recettes</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -43933,6 +46223,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AE312" t="inlineStr">
+        <is>
+          <t>sensibiliser à la biodiversité</t>
+        </is>
+      </c>
+      <c r="AF312" t="inlineStr">
+        <is>
+          <t>Maai Mei niet</t>
+        </is>
+      </c>
+      <c r="AH312" t="inlineStr">
+        <is>
+          <t>Invite à participer à une campagne</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -44073,6 +46378,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE313" t="inlineStr">
+        <is>
+          <t>localisé sur Bruxelles</t>
+        </is>
+      </c>
+      <c r="AG313" t="inlineStr">
+        <is>
+          <t>livraison à moins de 1€</t>
+        </is>
+      </c>
+      <c r="AH313" t="inlineStr">
+        <is>
+          <t>invite à commander sur leur site web pour bénéficier de frais de livraison pas chers</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -44508,6 +46828,21 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AE316" t="inlineStr">
+        <is>
+          <t>collaboration avec une blogueuse culinaire</t>
+        </is>
+      </c>
+      <c r="AF316" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH316" t="inlineStr">
+        <is>
+          <t>invite à se rendre sur leur site web pour découvrir la recette</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -44653,6 +46988,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="AE317" t="inlineStr">
+        <is>
+          <t>mise en avant du local et de la qualité</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -45083,6 +47423,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AH320" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -45228,6 +47573,21 @@
           <t>18</t>
         </is>
       </c>
+      <c r="AE321" t="inlineStr">
+        <is>
+          <t>Adaptation d'un produit sans additifs</t>
+        </is>
+      </c>
+      <c r="AF321" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH321" t="inlineStr">
+        <is>
+          <t>donne une idée de recette</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -45368,6 +47728,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AH322" t="inlineStr">
+        <is>
+          <t>Nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -45513,6 +47878,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AF323" t="inlineStr">
+        <is>
+          <t>Gepersonaliseerde M&amp;M's</t>
+        </is>
+      </c>
+      <c r="AH323" t="inlineStr">
+        <is>
+          <t>possibilité de personnaliser son produit</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -45658,6 +48033,11 @@
           <t>4d</t>
         </is>
       </c>
+      <c r="AE324" t="inlineStr">
+        <is>
+          <t>associé aux études/travail</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -45793,6 +48173,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AE325" t="inlineStr">
+        <is>
+          <t>associé au samedi, moments familiaux</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -45928,6 +48313,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AH326" t="inlineStr">
+        <is>
+          <t>offre d'emploi</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -46068,6 +48458,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE327" t="inlineStr">
+        <is>
+          <t>saison estivale, qualité des produits</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -46358,6 +48753,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AF329" t="inlineStr">
+        <is>
+          <t>Doorgeven van de voorkeur als consument</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -46768,6 +49168,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF332" t="inlineStr">
+        <is>
+          <t>DIY</t>
+        </is>
+      </c>
+      <c r="AH332" t="inlineStr">
+        <is>
+          <t>offre une idée de bricolage</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -46913,6 +49323,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AH333" t="inlineStr">
+        <is>
+          <t>invite à commander sur l'e-shop pour bénéficier de la promo</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -47058,6 +49473,26 @@
           <t>9</t>
         </is>
       </c>
+      <c r="AE334" t="inlineStr">
+        <is>
+          <t>collaboration entre Burger King et Deliveroo</t>
+        </is>
+      </c>
+      <c r="AG334" t="inlineStr">
+        <is>
+          <t>frais de livraisons</t>
+        </is>
+      </c>
+      <c r="AH334" t="inlineStr">
+        <is>
+          <t>incite à commander sur leur site pour bénéficier d'une livraison gratuite</t>
+        </is>
+      </c>
+      <c r="AI334" t="inlineStr">
+        <is>
+          <t>Gratis levering</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -47198,6 +49633,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AG335" t="inlineStr">
+        <is>
+          <t>Recherche d'emploi</t>
+        </is>
+      </c>
+      <c r="AH335" t="inlineStr">
+        <is>
+          <t>offre d'emploi</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -47343,6 +49788,16 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AE336" t="inlineStr">
+        <is>
+          <t>met en avant l'impact écologique faible du produit</t>
+        </is>
+      </c>
+      <c r="AF336" t="inlineStr">
+        <is>
+          <t>In de verf zetten van de ECO-score</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -47483,6 +49938,21 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE337" t="inlineStr">
+        <is>
+          <t>Assimilé au petit déjeuner</t>
+        </is>
+      </c>
+      <c r="AF337" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH337" t="inlineStr">
+        <is>
+          <t>Partage un recette</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -47623,6 +50093,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE338" t="inlineStr">
+        <is>
+          <t>collaboration entre Delhaize et Nestlé</t>
+        </is>
+      </c>
+      <c r="AH338" t="inlineStr">
+        <is>
+          <t>offre applicable que en ligne</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -47763,6 +50243,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE339" t="inlineStr">
+        <is>
+          <t>associé aux vacances</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -47878,6 +50363,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AE340" t="inlineStr">
+        <is>
+          <t>periode estivale</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -48018,6 +50508,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF341" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH341" t="inlineStr">
+        <is>
+          <t>offre une idée de recette</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -48163,6 +50663,11 @@
           <t>4b</t>
         </is>
       </c>
+      <c r="AE342" t="inlineStr">
+        <is>
+          <t>met en avant le fait que le produit est sans sucres ajoutés</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -48308,6 +50813,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE343" t="inlineStr">
+        <is>
+          <t>met en avant le Nutriscore avantageux et le fait qu'il soit moins gras mais tout aussi savoureux</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -48453,6 +50963,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE344" t="inlineStr">
+        <is>
+          <t>met en avant le fait qu'il soit "meuilleur pour la santé" et tout aussi bon + nutriscore</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -48598,6 +51113,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE345" t="inlineStr">
+        <is>
+          <t>met en avant le fait que ce sont des collations "saines et nutritives", collaboration entre Delhaize et Nestlé</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -48743,6 +51263,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="AE346" t="inlineStr">
+        <is>
+          <t>collaboration avec une blogueuse, associé aux sorties dehors</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -49033,6 +51558,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="AE348" t="inlineStr">
+        <is>
+          <t>associé au samedi</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -49458,6 +51988,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AF351" t="inlineStr">
+        <is>
+          <t>Gepersonaliseerd product</t>
+        </is>
+      </c>
+      <c r="AG351" t="inlineStr">
+        <is>
+          <t>personnalisation</t>
+        </is>
+      </c>
+      <c r="AH351" t="inlineStr">
+        <is>
+          <t>possibilité de personnaliser son produit</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -49603,6 +52148,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE352" t="inlineStr">
+        <is>
+          <t>motifs caractéristiques de la marque</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -49748,6 +52298,21 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AE353" t="inlineStr">
+        <is>
+          <t>collaboration avec une blogueuse culinaire</t>
+        </is>
+      </c>
+      <c r="AF353" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH353" t="inlineStr">
+        <is>
+          <t>idée de recette proposée</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -49893,6 +52458,11 @@
           <t>4a</t>
         </is>
       </c>
+      <c r="AE354" t="inlineStr">
+        <is>
+          <t>associé aux enfants</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -50033,6 +52603,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE355" t="inlineStr">
+        <is>
+          <t>saison automnale</t>
+        </is>
+      </c>
+      <c r="AH355" t="inlineStr">
+        <is>
+          <t>idée d'activité et recette données</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -50168,6 +52748,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE356" t="inlineStr">
+        <is>
+          <t>allusion au téléphone</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -50313,6 +52898,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AE357" t="inlineStr">
+        <is>
+          <t>saison estivale</t>
+        </is>
+      </c>
+      <c r="AF357" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH357" t="inlineStr">
+        <is>
+          <t>offre une idée de recette</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -50448,6 +53048,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF358" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH358" t="inlineStr">
+        <is>
+          <t>invite à consulter leur site pour avoir accès aux astuces</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -50588,6 +53198,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE359" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant sur Liège</t>
+        </is>
+      </c>
+      <c r="AH359" t="inlineStr">
+        <is>
+          <t>offre valable en commandant via leur cite = incitation</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -50728,6 +53348,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE360" t="inlineStr">
+        <is>
+          <t>associé au petit-déjeuner</t>
+        </is>
+      </c>
+      <c r="AF360" t="inlineStr">
+        <is>
+          <t>World Smile Day</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -50873,6 +53503,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE361" t="inlineStr">
+        <is>
+          <t>motifs caractéristiques de l'entreprise</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -50988,6 +53623,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AE362" t="inlineStr">
+        <is>
+          <t>associé à un moment convivial</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -51258,6 +53898,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AH364" t="inlineStr">
+        <is>
+          <t>nouveau magasin ouvert</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -51403,6 +54048,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AF365" t="inlineStr">
+        <is>
+          <t>Wereldcomplimentendag</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -51548,6 +54198,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AE366" t="inlineStr">
+        <is>
+          <t>Collaboration avec TakeAway (et Nutella)</t>
+        </is>
+      </c>
+      <c r="AG366" t="inlineStr">
+        <is>
+          <t>site web</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -51983,6 +54643,21 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AE369" t="inlineStr">
+        <is>
+          <t>saison printannière, collaboration avec une blogueuse</t>
+        </is>
+      </c>
+      <c r="AF369" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH369" t="inlineStr">
+        <is>
+          <t>idée de recette offerte</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -52128,6 +54803,26 @@
           <t>18</t>
         </is>
       </c>
+      <c r="AE370" t="inlineStr">
+        <is>
+          <t>collaboration avec Colruyt, mise en avant de l'écologie</t>
+        </is>
+      </c>
+      <c r="AF370" t="inlineStr">
+        <is>
+          <t>Less packaging</t>
+        </is>
+      </c>
+      <c r="AG370" t="inlineStr">
+        <is>
+          <t>diminution d l'emballage</t>
+        </is>
+      </c>
+      <c r="AH370" t="inlineStr">
+        <is>
+          <t>nouvel emballage plus éco-responsable</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -52273,6 +54968,11 @@
           <t>4d</t>
         </is>
       </c>
+      <c r="AE371" t="inlineStr">
+        <is>
+          <t>associé au jardinage</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -52418,6 +55118,16 @@
           <t>8</t>
         </is>
       </c>
+      <c r="AE372" t="inlineStr">
+        <is>
+          <t>collaboration avec une émission, placement d'un produit de la marque Carrefour</t>
+        </is>
+      </c>
+      <c r="AF372" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -52563,6 +55273,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AG373" t="inlineStr">
+        <is>
+          <t>site web / réseau sociaux</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -52703,6 +55418,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF374" t="inlineStr">
+        <is>
+          <t>Recept</t>
+        </is>
+      </c>
+      <c r="AH374" t="inlineStr">
+        <is>
+          <t>invite à cliquer sur un lien pour acceder à la recette</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -52818,6 +55543,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AF375" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -52948,6 +55678,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF376" t="inlineStr">
+        <is>
+          <t>International day of friendship</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -53223,6 +55958,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF378" t="inlineStr">
+        <is>
+          <t>Gepersonaliseerde verpakking</t>
+        </is>
+      </c>
+      <c r="AH378" t="inlineStr">
+        <is>
+          <t>produit personnalisable</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -53483,6 +56228,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="AE380" t="inlineStr">
+        <is>
+          <t>associé au petit-déjeuner, met en avant ses atouts nutritionnels</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -53628,6 +56378,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AE381" t="inlineStr">
+        <is>
+          <t>motif caractéristiques de la marque</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -53758,6 +56513,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF382" t="inlineStr">
+        <is>
+          <t>Familiedag</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -53893,6 +56653,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE383" t="inlineStr">
+        <is>
+          <t>associé au jeux de société, saison automnale</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -54033,6 +56798,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE384" t="inlineStr">
+        <is>
+          <t>Localisé sur Anvers</t>
+        </is>
+      </c>
+      <c r="AH384" t="inlineStr">
+        <is>
+          <t>incite à commander sur leur site pour bénéficier de livraisons peu chères</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -54148,6 +56923,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AF385" t="inlineStr">
+        <is>
+          <t>Gelimiteerde oplage</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -54293,6 +57073,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AH386" t="inlineStr">
+        <is>
+          <t>diverses offres</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -54558,6 +57343,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE388" t="inlineStr">
+        <is>
+          <t>localisé sur Bruxelles</t>
+        </is>
+      </c>
+      <c r="AH388" t="inlineStr">
+        <is>
+          <t>invite a commander sur leur site pour bénéficier de livraisons peu chères</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -54703,6 +57498,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="AE389" t="inlineStr">
+        <is>
+          <t>met en avant l'amellioration de leur recette</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -54843,6 +57643,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE390" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant sur Bruxelles</t>
+        </is>
+      </c>
+      <c r="AH390" t="inlineStr">
+        <is>
+          <t>offre valable en commandant sur leur site</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -55128,6 +57938,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE392" t="inlineStr">
+        <is>
+          <t>collaboration avec un restaurant sur Anvers</t>
+        </is>
+      </c>
+      <c r="AH392" t="inlineStr">
+        <is>
+          <t>exclusivement en commandant sur leur site</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -55268,6 +58088,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE393" t="inlineStr">
+        <is>
+          <t>motifs caractériqtiques de la marque</t>
+        </is>
+      </c>
+      <c r="AF393" t="inlineStr">
+        <is>
+          <t>Internationale dag van de Ijsbeer</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -55403,6 +58233,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE394" t="inlineStr">
+        <is>
+          <t>motifs caractériqtiques de l'entreprise</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -55538,6 +58373,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AF395" t="inlineStr">
+        <is>
+          <t>Complimentendag</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -55683,6 +58523,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AE396" t="inlineStr">
+        <is>
+          <t>mise en avant d'une alternative végétale</t>
+        </is>
+      </c>
+      <c r="AF396" t="inlineStr">
+        <is>
+          <t>Complimentendag</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -55798,6 +58648,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AH397" t="inlineStr">
+        <is>
+          <t>nouveauté</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -55913,6 +58768,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="AE398" t="inlineStr">
+        <is>
+          <t>associé aux festivités, met en avant ses "atouts nutritionnels"</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -56053,6 +58913,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AE399" t="inlineStr">
+        <is>
+          <t>associé au mercredi et aux moments familiaux</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -56198,6 +59063,16 @@
           <t>4e</t>
         </is>
       </c>
+      <c r="AE400" t="inlineStr">
+        <is>
+          <t>collaboration avec Coca Cola</t>
+        </is>
+      </c>
+      <c r="AF400" t="inlineStr">
+        <is>
+          <t>Samenwerking met ander merk?</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -56331,6 +59206,11 @@
       <c r="AC401" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="AE401" t="inlineStr">
+        <is>
+          <t>motifs caractéristiques de la marque</t>
         </is>
       </c>
     </row>
